--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1958.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1958.xlsx
@@ -351,10 +351,10 @@
         <v>1.290230657822464</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.479230535656616</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1958.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1958.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.290230657822464</v>
+        <v>1.097053050994873</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>2.099148511886597</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>9.161490440368652</v>
       </c>
       <c r="D1">
-        <v>1.479230535656616</v>
+        <v>2.417988777160645</v>
       </c>
       <c r="E1">
-        <v>1.008451114189917</v>
+        <v>1.298597574234009</v>
       </c>
     </row>
   </sheetData>
